--- a/data/trans_orig/IPAQ_MET-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>90527</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>75146</v>
+        <v>75531</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>107658</v>
+        <v>109888</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3081653256486255</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2558060347841246</v>
+        <v>0.257116272512444</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3664830059637316</v>
+        <v>0.3740720579840788</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -763,19 +763,19 @@
         <v>30465</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21278</v>
+        <v>20948</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40953</v>
+        <v>41659</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1055230882717544</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07370353441134578</v>
+        <v>0.07255823343019052</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1418518900261627</v>
+        <v>0.1442955009439165</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -784,19 +784,19 @@
         <v>120992</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>99229</v>
+        <v>101620</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>139305</v>
+        <v>143412</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2077240593054221</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1703604629587331</v>
+        <v>0.1744648962633987</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2391645733301272</v>
+        <v>0.2462159736530408</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>137788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>121375</v>
+        <v>120695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>156149</v>
+        <v>156730</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4690480931623355</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4131776535557915</v>
+        <v>0.4108608939080222</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5315502537391653</v>
+        <v>0.5335273877515569</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>149</v>
@@ -834,19 +834,19 @@
         <v>157246</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>139830</v>
+        <v>139511</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>173630</v>
+        <v>175145</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.544665046720673</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4843372514059666</v>
+        <v>0.483234986327936</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6014151427890774</v>
+        <v>0.6066601578492444</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>274</v>
@@ -855,19 +855,19 @@
         <v>295034</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>270771</v>
+        <v>269121</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>320144</v>
+        <v>318914</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5065282486853395</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4648716927544033</v>
+        <v>0.4620395970282092</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5496373803387627</v>
+        <v>0.5475248383015968</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>65446</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50915</v>
+        <v>50230</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80102</v>
+        <v>82002</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2227865811890389</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1733210998672855</v>
+        <v>0.1709877582198661</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2726768466365856</v>
+        <v>0.2791465205973307</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>97</v>
@@ -905,19 +905,19 @@
         <v>100992</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>84627</v>
+        <v>84911</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>117214</v>
+        <v>118864</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3498118650075727</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.293129071551501</v>
+        <v>0.294112007225651</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4060031533290123</v>
+        <v>0.411716930734083</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>157</v>
@@ -926,19 +926,19 @@
         <v>166438</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>145611</v>
+        <v>141620</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>190051</v>
+        <v>188398</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2857476920092384</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2499907982517293</v>
+        <v>0.243140306706398</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3262873869646766</v>
+        <v>0.3234497483586851</v>
       </c>
     </row>
     <row r="7">
@@ -1030,19 +1030,19 @@
         <v>68765</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>55202</v>
+        <v>54293</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>87286</v>
+        <v>84711</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1368261522136581</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1098376678947583</v>
+        <v>0.1080301805859317</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1736782694389907</v>
+        <v>0.1685540653987519</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -1051,19 +1051,19 @@
         <v>24449</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15845</v>
+        <v>16154</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>35493</v>
+        <v>35809</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04674023854111763</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03029234648506327</v>
+        <v>0.03088182045538814</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06785407449594975</v>
+        <v>0.06845724024070229</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>90</v>
@@ -1072,19 +1072,19 @@
         <v>93214</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>76083</v>
+        <v>76429</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>114387</v>
+        <v>114655</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0908825360049323</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07417987646201295</v>
+        <v>0.07451667195706557</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1115253466564538</v>
+        <v>0.1117866107003694</v>
       </c>
     </row>
     <row r="9">
@@ -1101,19 +1101,19 @@
         <v>280182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>256737</v>
+        <v>255956</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>301302</v>
+        <v>303665</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5574927978996403</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5108440079664702</v>
+        <v>0.5092896405903945</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5995156634204735</v>
+        <v>0.6042177281741934</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>258</v>
@@ -1122,19 +1122,19 @@
         <v>273755</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>250080</v>
+        <v>248556</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>297735</v>
+        <v>295242</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5233480311844713</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4780876506181775</v>
+        <v>0.4751738989059733</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5691915910786282</v>
+        <v>0.5644249110323193</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>521</v>
@@ -1143,19 +1143,19 @@
         <v>553937</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>521166</v>
+        <v>521033</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>587749</v>
+        <v>587830</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5400790425904529</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5081282447415008</v>
+        <v>0.5079979031912752</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5730453614552918</v>
+        <v>0.5731246090951629</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>153628</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>133267</v>
+        <v>133471</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>175857</v>
+        <v>175238</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3056810498867016</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2651686074454438</v>
+        <v>0.2655752597661138</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3499114391184808</v>
+        <v>0.3486804624857469</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>202</v>
@@ -1193,19 +1193,19 @@
         <v>224880</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>202110</v>
+        <v>200674</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>249812</v>
+        <v>249686</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4299117302744112</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3863815867937853</v>
+        <v>0.383636543117915</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4775746361353047</v>
+        <v>0.4773347440489885</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>348</v>
@@ -1214,19 +1214,19 @@
         <v>378508</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>344687</v>
+        <v>346778</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>410616</v>
+        <v>408638</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3690384214046148</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3360639206985669</v>
+        <v>0.338102424547581</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4003432801753643</v>
+        <v>0.398414580926131</v>
       </c>
     </row>
     <row r="11">
@@ -1318,19 +1318,19 @@
         <v>38610</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27726</v>
+        <v>28964</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50726</v>
+        <v>51418</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1212005171039737</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08703402545286056</v>
+        <v>0.09092128135344502</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1592338485336181</v>
+        <v>0.1614065044735414</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -1339,19 +1339,19 @@
         <v>10706</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5618</v>
+        <v>5720</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18100</v>
+        <v>19046</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03183382159032355</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01670518449402945</v>
+        <v>0.01700918532922346</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05382018398914352</v>
+        <v>0.0566323324350452</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>51</v>
@@ -1360,19 +1360,19 @@
         <v>49316</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>38068</v>
+        <v>37125</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>65953</v>
+        <v>62970</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07530646084534563</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05813023589683958</v>
+        <v>0.05669021252282677</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1007106900854537</v>
+        <v>0.09615553378024796</v>
       </c>
     </row>
     <row r="13">
@@ -1389,19 +1389,19 @@
         <v>183200</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>166016</v>
+        <v>166143</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>200765</v>
+        <v>200266</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5750787065989461</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.521136674167565</v>
+        <v>0.5215358757756541</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6302159293244843</v>
+        <v>0.6286490391261816</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>199</v>
@@ -1410,19 +1410,19 @@
         <v>197172</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>180702</v>
+        <v>179552</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>217455</v>
+        <v>214755</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.58628215606634</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5373079829558352</v>
+        <v>0.5338904411955696</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.646594313672701</v>
+        <v>0.6385636176512981</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>391</v>
@@ -1431,19 +1431,19 @@
         <v>380372</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>357506</v>
+        <v>354511</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>404525</v>
+        <v>404869</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.580832211718409</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5459154264722919</v>
+        <v>0.5413427934340072</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6177144243337361</v>
+        <v>0.6182389291736685</v>
       </c>
     </row>
     <row r="14">
@@ -1460,19 +1460,19 @@
         <v>96755</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>80873</v>
+        <v>82331</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>113868</v>
+        <v>114225</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3037207762970802</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2538658686930786</v>
+        <v>0.2584420193700445</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3574400539042496</v>
+        <v>0.3585604814304888</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>122</v>
@@ -1481,19 +1481,19 @@
         <v>128431</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>109634</v>
+        <v>112047</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>145399</v>
+        <v>146775</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3818840223433364</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3259919527019202</v>
+        <v>0.3331669335364733</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4323371630248342</v>
+        <v>0.4364301283005859</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>225</v>
@@ -1502,19 +1502,19 @@
         <v>225186</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>203269</v>
+        <v>201884</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>249022</v>
+        <v>251048</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3438613274362453</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3103946317174505</v>
+        <v>0.3082797730805485</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3802588393589273</v>
+        <v>0.3833524357030288</v>
       </c>
     </row>
     <row r="15">
@@ -1606,19 +1606,19 @@
         <v>62342</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49463</v>
+        <v>49414</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78872</v>
+        <v>77592</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1685091749189397</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1336964765711586</v>
+        <v>0.133564883052516</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2131870947943285</v>
+        <v>0.2097297115614433</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -1627,19 +1627,19 @@
         <v>30536</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20623</v>
+        <v>21432</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44369</v>
+        <v>42209</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07884614108220411</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05324977164007461</v>
+        <v>0.05533909588016261</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1145639396996587</v>
+        <v>0.1089879868721016</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>87</v>
@@ -1648,19 +1648,19 @@
         <v>92878</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>76150</v>
+        <v>76572</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>113918</v>
+        <v>112983</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1226523159892113</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1005617612610464</v>
+        <v>0.1011184028182453</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1504372983861349</v>
+        <v>0.1492026561458203</v>
       </c>
     </row>
     <row r="17">
@@ -1677,19 +1677,19 @@
         <v>215226</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195668</v>
+        <v>194801</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>234001</v>
+        <v>233086</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5817483098670119</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5288829093483262</v>
+        <v>0.526541626653046</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6324979304993495</v>
+        <v>0.6300241837265311</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>182</v>
@@ -1698,19 +1698,19 @@
         <v>195291</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176345</v>
+        <v>175019</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216897</v>
+        <v>216269</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5042597601375568</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4553385205567052</v>
+        <v>0.4519150635497968</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.560047397766512</v>
+        <v>0.5584259115813748</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>388</v>
@@ -1719,19 +1719,19 @@
         <v>410517</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>380316</v>
+        <v>382429</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>440203</v>
+        <v>439305</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5421179143566046</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5022349620885106</v>
+        <v>0.5050257430539641</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5813205088722034</v>
+        <v>0.5801348266451528</v>
       </c>
     </row>
     <row r="18">
@@ -1748,19 +1748,19 @@
         <v>92396</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>76799</v>
+        <v>74941</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>109151</v>
+        <v>109904</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2497425152140484</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2075846601091442</v>
+        <v>0.202563926663331</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2950300956216884</v>
+        <v>0.2970665927848056</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>148</v>
@@ -1769,19 +1769,19 @@
         <v>161456</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>140967</v>
+        <v>140980</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>181344</v>
+        <v>182169</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4168940987802391</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3639901251161046</v>
+        <v>0.3640233350231637</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4682466204903908</v>
+        <v>0.4703763604331997</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>237</v>
@@ -1790,19 +1790,19 @@
         <v>253852</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>228121</v>
+        <v>228497</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>283739</v>
+        <v>283735</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3352297696541842</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3012505828764798</v>
+        <v>0.3017465860524587</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3746986017706527</v>
+        <v>0.3746930072964632</v>
       </c>
     </row>
     <row r="19">
@@ -1894,19 +1894,19 @@
         <v>32043</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23033</v>
+        <v>22747</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>43427</v>
+        <v>42965</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1517028854179309</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1090473182524229</v>
+        <v>0.1076941485454193</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2055988944348199</v>
+        <v>0.2034134430384541</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -1915,19 +1915,19 @@
         <v>16811</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10482</v>
+        <v>10289</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25078</v>
+        <v>25124</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07690890352281031</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04795484788429018</v>
+        <v>0.04707054521031669</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1147278892210313</v>
+        <v>0.1149404043031046</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>50</v>
@@ -1936,19 +1936,19 @@
         <v>48854</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>37275</v>
+        <v>36675</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>63465</v>
+        <v>62503</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.113664988992687</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0867239366193171</v>
+        <v>0.08532858162406838</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1476579574554472</v>
+        <v>0.1454201028815313</v>
       </c>
     </row>
     <row r="21">
@@ -1965,19 +1965,19 @@
         <v>87571</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>73372</v>
+        <v>74444</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>101323</v>
+        <v>102250</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4145944373386349</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.347372187386939</v>
+        <v>0.3524436751749922</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4796998473909188</v>
+        <v>0.4840895243333959</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>83</v>
@@ -1986,19 +1986,19 @@
         <v>79873</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>65885</v>
+        <v>65819</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>94420</v>
+        <v>94116</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3654081392125005</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3014126862529448</v>
+        <v>0.3011102252453933</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4319551233664235</v>
+        <v>0.4305657195892009</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>172</v>
@@ -2007,19 +2007,19 @@
         <v>167445</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>147952</v>
+        <v>148061</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>188089</v>
+        <v>187948</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3895798136181517</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3442269902725211</v>
+        <v>0.3444807692711149</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4376109608847705</v>
+        <v>0.4372825048239992</v>
       </c>
     </row>
     <row r="22">
@@ -2036,19 +2036,19 @@
         <v>91607</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>76964</v>
+        <v>77805</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106813</v>
+        <v>106362</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4337026772434342</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3643770362979557</v>
+        <v>0.3683585226061628</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5056935098039529</v>
+        <v>0.5035582375195671</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>122</v>
@@ -2057,19 +2057,19 @@
         <v>121902</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>107878</v>
+        <v>108221</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>137154</v>
+        <v>137017</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5576829572646892</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4935255839744106</v>
+        <v>0.4950954297150673</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6274580788711692</v>
+        <v>0.6268293941758167</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>213</v>
@@ -2078,19 +2078,19 @@
         <v>213509</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>192624</v>
+        <v>192185</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>232305</v>
+        <v>233494</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4967551973891612</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4481636864636503</v>
+        <v>0.4471407994702931</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5404843746380006</v>
+        <v>0.543250849227334</v>
       </c>
     </row>
     <row r="23">
@@ -2182,19 +2182,19 @@
         <v>27784</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19096</v>
+        <v>18952</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>38808</v>
+        <v>39697</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1055926201138401</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07257252826758526</v>
+        <v>0.07202874107897667</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.147489031414228</v>
+        <v>0.1508701274804251</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -2203,19 +2203,19 @@
         <v>15690</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8530</v>
+        <v>9349</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24084</v>
+        <v>24819</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05745010035666727</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03123065739276329</v>
+        <v>0.03422934890948583</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08818084567495202</v>
+        <v>0.09087279286859322</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>43</v>
@@ -2224,19 +2224,19 @@
         <v>43474</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>31609</v>
+        <v>32728</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>56299</v>
+        <v>58464</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08107282794347981</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05894521875356382</v>
+        <v>0.06103210697952823</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1049883906388925</v>
+        <v>0.1090264962869627</v>
       </c>
     </row>
     <row r="25">
@@ -2253,19 +2253,19 @@
         <v>127530</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>111248</v>
+        <v>113560</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>143421</v>
+        <v>145245</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4846796458751638</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.422799353216726</v>
+        <v>0.4315852916552838</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5450708934272602</v>
+        <v>0.5520055197601038</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>121</v>
@@ -2274,19 +2274,19 @@
         <v>125957</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>109947</v>
+        <v>110525</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>142703</v>
+        <v>140762</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4611876219405838</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4025684101437678</v>
+        <v>0.4046836357246993</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5225021354024083</v>
+        <v>0.5153956349390131</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>244</v>
@@ -2295,19 +2295,19 @@
         <v>253488</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>226945</v>
+        <v>230889</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>275603</v>
+        <v>277433</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.472714764364133</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4232167813256606</v>
+        <v>0.4305711033736429</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5139557972944034</v>
+        <v>0.5173698988437677</v>
       </c>
     </row>
     <row r="26">
@@ -2324,19 +2324,19 @@
         <v>107809</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>91708</v>
+        <v>91419</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>123386</v>
+        <v>123640</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4097277340109961</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3485347699282997</v>
+        <v>0.3474381238538713</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4689276658476923</v>
+        <v>0.4698938583830959</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>126</v>
@@ -2345,19 +2345,19 @@
         <v>131467</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>115105</v>
+        <v>114877</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>148628</v>
+        <v>146974</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4813622777027489</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4214519869968014</v>
+        <v>0.4206188700615946</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5441948775603255</v>
+        <v>0.5381388993620503</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>235</v>
@@ -2366,19 +2366,19 @@
         <v>239276</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>217360</v>
+        <v>215244</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>267179</v>
+        <v>263330</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4462124076923872</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4053427611758526</v>
+        <v>0.4013965068015385</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4982466882634582</v>
+        <v>0.4910698916178578</v>
       </c>
     </row>
     <row r="27">
@@ -2470,19 +2470,19 @@
         <v>91718</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>73192</v>
+        <v>74282</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>110132</v>
+        <v>113190</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1396958166647202</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1114781366255269</v>
+        <v>0.1131382887768151</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1677414135284858</v>
+        <v>0.1723992300687605</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>43</v>
@@ -2491,19 +2491,19 @@
         <v>46498</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>34404</v>
+        <v>34695</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>61308</v>
+        <v>60917</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06726239156000124</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04976787555860673</v>
+        <v>0.05018869414716882</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08868622983229886</v>
+        <v>0.08812017325153529</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>125</v>
@@ -2512,19 +2512,19 @@
         <v>138216</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>117282</v>
+        <v>116491</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>161375</v>
+        <v>163057</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1025457495210544</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08701417677289484</v>
+        <v>0.08642691162730146</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1197277684413121</v>
+        <v>0.1209754170821886</v>
       </c>
     </row>
     <row r="29">
@@ -2541,19 +2541,19 @@
         <v>292789</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>266080</v>
+        <v>264551</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>318979</v>
+        <v>319235</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4459455863098954</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4052656252562477</v>
+        <v>0.4029369260301443</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4858355712317338</v>
+        <v>0.4862253119258382</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>316</v>
@@ -2562,19 +2562,19 @@
         <v>330562</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>303934</v>
+        <v>303765</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>355873</v>
+        <v>358476</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4781789556087103</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4396600211725135</v>
+        <v>0.4394157313950918</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5147923540140453</v>
+        <v>0.5185584154091876</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>570</v>
@@ -2583,19 +2583,19 @@
         <v>623351</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>583446</v>
+        <v>586794</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>662087</v>
+        <v>661365</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4624776201324895</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4328706948837557</v>
+        <v>0.4353548364950873</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.491216289665026</v>
+        <v>0.4906803781907055</v>
       </c>
     </row>
     <row r="30">
@@ -2612,19 +2612,19 @@
         <v>272050</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>246258</v>
+        <v>244048</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>298717</v>
+        <v>300712</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4143585970253844</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3750748564236224</v>
+        <v>0.371708806755373</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4549742542810715</v>
+        <v>0.458012486710158</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>287</v>
@@ -2633,19 +2633,19 @@
         <v>314234</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>288441</v>
+        <v>286023</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>339801</v>
+        <v>340938</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4545586528312884</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4172475746288847</v>
+        <v>0.4137495960642006</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.491543349788025</v>
+        <v>0.4931874275218643</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>531</v>
@@ -2654,19 +2654,19 @@
         <v>586284</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>549052</v>
+        <v>547579</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>628518</v>
+        <v>623728</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4349766303464561</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4073534647672322</v>
+        <v>0.406260704506177</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4663111558901657</v>
+        <v>0.4627570664062051</v>
       </c>
     </row>
     <row r="31">
@@ -2758,19 +2758,19 @@
         <v>64745</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>50796</v>
+        <v>50331</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>81282</v>
+        <v>82492</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08315683810582458</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06524098889167869</v>
+        <v>0.06464399601222949</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1043977302427817</v>
+        <v>0.1059515579304398</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>21</v>
@@ -2779,19 +2779,19 @@
         <v>22238</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13565</v>
+        <v>13811</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>33524</v>
+        <v>34257</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02691699240479683</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01641926758534023</v>
+        <v>0.01671708328957239</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04057790265658713</v>
+        <v>0.04146483321512195</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>84</v>
@@ -2800,19 +2800,19 @@
         <v>86982</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>69608</v>
+        <v>69949</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>104977</v>
+        <v>105201</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05420310403477746</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04337638253040465</v>
+        <v>0.04358891349918674</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06541620871166808</v>
+        <v>0.06555630393854039</v>
       </c>
     </row>
     <row r="33">
@@ -2829,19 +2829,19 @@
         <v>382128</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>356643</v>
+        <v>351290</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>409134</v>
+        <v>409303</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4907998709587652</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4580666923011994</v>
+        <v>0.4511914064037907</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5254859597767501</v>
+        <v>0.5257020776552294</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>322</v>
@@ -2850,19 +2850,19 @@
         <v>348936</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>318760</v>
+        <v>317123</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>377048</v>
+        <v>377234</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4223554533351078</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.385829799321979</v>
+        <v>0.38384849088758</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4563819035609629</v>
+        <v>0.4566073250657113</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>686</v>
@@ -2871,19 +2871,19 @@
         <v>731065</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>688586</v>
+        <v>687812</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>772921</v>
+        <v>770638</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4555629061018924</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4290922143369639</v>
+        <v>0.4286097824178112</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4816454532207425</v>
+        <v>0.4802232848970053</v>
       </c>
     </row>
     <row r="34">
@@ -2900,19 +2900,19 @@
         <v>331710</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>302615</v>
+        <v>303599</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>357391</v>
+        <v>360273</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4260432909354102</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3886738491533679</v>
+        <v>0.3899377025777472</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4590276442811669</v>
+        <v>0.4627295359258735</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>412</v>
@@ -2921,19 +2921,19 @@
         <v>454993</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>427986</v>
+        <v>425313</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>485720</v>
+        <v>486727</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5507275542600953</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5180386669685167</v>
+        <v>0.5148031364718301</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5879200930486185</v>
+        <v>0.5891383884770302</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>735</v>
@@ -2942,19 +2942,19 @@
         <v>786703</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>744726</v>
+        <v>748099</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>830412</v>
+        <v>827053</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4902339898633302</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4640758765611491</v>
+        <v>0.466177755890767</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5174709719203258</v>
+        <v>0.5153779310892135</v>
       </c>
     </row>
     <row r="35">
@@ -3046,19 +3046,19 @@
         <v>476535</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>436527</v>
+        <v>437981</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>518459</v>
+        <v>516767</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1403905067155106</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1286040901304634</v>
+        <v>0.1290324943362736</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1527417490379025</v>
+        <v>0.1522432629283079</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>192</v>
@@ -3067,19 +3067,19 @@
         <v>197393</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>169849</v>
+        <v>173590</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>224760</v>
+        <v>227121</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05568941290022587</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04791853468411063</v>
+        <v>0.04897385118138771</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06341018957301164</v>
+        <v>0.06407620771999326</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>642</v>
@@ -3088,19 +3088,19 @@
         <v>673928</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>626394</v>
+        <v>621450</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>728650</v>
+        <v>724559</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09712328630252978</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09027292835624214</v>
+        <v>0.08956043061694993</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1050095672939261</v>
+        <v>0.1044199304806835</v>
       </c>
     </row>
     <row r="37">
@@ -3117,19 +3117,19 @@
         <v>1706415</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1652342</v>
+        <v>1651772</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1768155</v>
+        <v>1771942</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5027221329815735</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4867920150423423</v>
+        <v>0.4866240058952113</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5209113061283316</v>
+        <v>0.5220269654869019</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1630</v>
@@ -3138,19 +3138,19 @@
         <v>1708794</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1653649</v>
+        <v>1643997</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1773493</v>
+        <v>1767301</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4820915424225908</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.466533810678934</v>
+        <v>0.4638107737053301</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5003446339408808</v>
+        <v>0.4985977785511068</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3246</v>
@@ -3159,19 +3159,19 @@
         <v>3415209</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3340512</v>
+        <v>3321300</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3503237</v>
+        <v>3494369</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.492183564130124</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4814187122385455</v>
+        <v>0.4786499625110557</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5048697302331341</v>
+        <v>0.5035917988574045</v>
       </c>
     </row>
     <row r="38">
@@ -3188,19 +3188,19 @@
         <v>1211401</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1159778</v>
+        <v>1153123</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1272429</v>
+        <v>1267476</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3568873603029158</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3416790896614441</v>
+        <v>0.339718245434453</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.374866767686324</v>
+        <v>0.373407581322073</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1516</v>
@@ -3209,19 +3209,19 @@
         <v>1638355</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1580435</v>
+        <v>1580230</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1696016</v>
+        <v>1702017</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4622190446771833</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4458785656051979</v>
+        <v>0.4458206462063441</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4784865185513294</v>
+        <v>0.4801795585244058</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2681</v>
@@ -3230,19 +3230,19 @@
         <v>2849755</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2761622</v>
+        <v>2773784</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2926814</v>
+        <v>2941347</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4106931495673462</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3979918145848292</v>
+        <v>0.3997444656883644</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4217984585909653</v>
+        <v>0.4238929555696783</v>
       </c>
     </row>
     <row r="39">
@@ -3578,19 +3578,19 @@
         <v>70809</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54906</v>
+        <v>55094</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89602</v>
+        <v>88358</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2220789977400209</v>
+        <v>0.222078997740021</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1722022090481334</v>
+        <v>0.1727914461230752</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2810217374566008</v>
+        <v>0.2771179452313431</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -3599,19 +3599,19 @@
         <v>31900</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24229</v>
+        <v>24364</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44064</v>
+        <v>42779</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1009302909248082</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07665887910143344</v>
+        <v>0.07708580473717565</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1394152270466023</v>
+        <v>0.1353489526721548</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -3620,19 +3620,19 @@
         <v>102709</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>85476</v>
+        <v>85183</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>123182</v>
+        <v>123410</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1617703177922974</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1346273035383517</v>
+        <v>0.1341668954948041</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1940161480463157</v>
+        <v>0.1943748778008731</v>
       </c>
     </row>
     <row r="5">
@@ -3649,19 +3649,19 @@
         <v>195294</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>176044</v>
+        <v>175737</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>213279</v>
+        <v>211541</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6125035383420797</v>
+        <v>0.6125035383420798</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5521309148419732</v>
+        <v>0.5511685779677046</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.668910942115711</v>
+        <v>0.6634602385532415</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>350</v>
@@ -3670,19 +3670,19 @@
         <v>209887</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>195143</v>
+        <v>195122</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>223833</v>
+        <v>222402</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6640698897283311</v>
+        <v>0.6640698897283313</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6174216998672902</v>
+        <v>0.61735566110167</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7081953877723122</v>
+        <v>0.7036685713031309</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>554</v>
@@ -3691,19 +3691,19 @@
         <v>405180</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>382126</v>
+        <v>382279</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>425792</v>
+        <v>427017</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6381736314332821</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6018628387854925</v>
+        <v>0.6021036883158443</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6706378201132276</v>
+        <v>0.6725680453845112</v>
       </c>
     </row>
     <row r="6">
@@ -3720,19 +3720,19 @@
         <v>52743</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40694</v>
+        <v>41197</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67485</v>
+        <v>66672</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1654174639178992</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1276305080032893</v>
+        <v>0.1292069108904489</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2116534831764437</v>
+        <v>0.2091039155926228</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>134</v>
@@ -3741,19 +3741,19 @@
         <v>74274</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>63128</v>
+        <v>62896</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>87270</v>
+        <v>86392</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2349998193468606</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1997322310337544</v>
+        <v>0.1989999668395278</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2761190935726414</v>
+        <v>0.2733383254983221</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>196</v>
@@ -3762,19 +3762,19 @@
         <v>127017</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>111058</v>
+        <v>110357</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>145987</v>
+        <v>146772</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2000560507744205</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1749206480161017</v>
+        <v>0.173815836582161</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2299345696235872</v>
+        <v>0.2311706674677366</v>
       </c>
     </row>
     <row r="7">
@@ -3866,19 +3866,19 @@
         <v>152863</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>128461</v>
+        <v>126495</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>180253</v>
+        <v>180882</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2880694909278911</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2420839399339187</v>
+        <v>0.2383782757727112</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3396855906904143</v>
+        <v>0.3408712664067038</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>202</v>
@@ -3887,19 +3887,19 @@
         <v>151928</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>132008</v>
+        <v>133416</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>171440</v>
+        <v>171578</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2780045492216198</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2415539634697249</v>
+        <v>0.2441298560366451</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.313709555053048</v>
+        <v>0.3139607063568338</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>312</v>
@@ -3908,19 +3908,19 @@
         <v>304791</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>270398</v>
+        <v>273416</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>334200</v>
+        <v>337277</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2829629803242473</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2510330975690332</v>
+        <v>0.253834497221553</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3102657606628622</v>
+        <v>0.3131228285476629</v>
       </c>
     </row>
     <row r="9">
@@ -3937,19 +3937,19 @@
         <v>182226</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>155637</v>
+        <v>155646</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>211142</v>
+        <v>209095</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3434036677885164</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2932969266322896</v>
+        <v>0.2933139013859435</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3978953159748836</v>
+        <v>0.3940371479213279</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>157</v>
@@ -3958,19 +3958,19 @@
         <v>123854</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>107324</v>
+        <v>106403</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>142993</v>
+        <v>142650</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2266346078720373</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1963857929063736</v>
+        <v>0.1947018724128243</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2616555324175693</v>
+        <v>0.2610267291447774</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>282</v>
@@ -3979,19 +3979,19 @@
         <v>306081</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>276006</v>
+        <v>271847</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>341623</v>
+        <v>340329</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.2841601609662674</v>
+        <v>0.2841601609662675</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2562394756349609</v>
+        <v>0.2523786992472739</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3171571647181542</v>
+        <v>0.3159558835960514</v>
       </c>
     </row>
     <row r="10">
@@ -4008,19 +4008,19 @@
         <v>195558</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>167441</v>
+        <v>168035</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>223378</v>
+        <v>226192</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3685268412835925</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3155417707581654</v>
+        <v>0.3166611431822658</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4209544087570736</v>
+        <v>0.4262573885185407</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>358</v>
@@ -4029,19 +4029,19 @@
         <v>270712</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>249908</v>
+        <v>250110</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>292804</v>
+        <v>293810</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.495360842906343</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4572939498306354</v>
+        <v>0.457662405580189</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5357866631763091</v>
+        <v>0.5376277171743485</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>505</v>
@@ -4050,19 +4050,19 @@
         <v>466269</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>431369</v>
+        <v>433472</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>506597</v>
+        <v>501580</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4328768587094853</v>
+        <v>0.4328768587094854</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4004757878645699</v>
+        <v>0.4024285288690533</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4703163088885482</v>
+        <v>0.4656587164271394</v>
       </c>
     </row>
     <row r="11">
@@ -4154,19 +4154,19 @@
         <v>52748</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41355</v>
+        <v>40004</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>66619</v>
+        <v>67426</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1669271993511571</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1308742973341474</v>
+        <v>0.1265961967090196</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2108256922039233</v>
+        <v>0.2133778892740676</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>49</v>
@@ -4175,19 +4175,19 @@
         <v>35993</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26872</v>
+        <v>26671</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47188</v>
+        <v>45872</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1009946305425578</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07540123318330556</v>
+        <v>0.07483911581180575</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1324077943866935</v>
+        <v>0.1287164453170641</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>106</v>
@@ -4196,19 +4196,19 @@
         <v>88741</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>73815</v>
+        <v>74504</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>106947</v>
+        <v>107707</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1319807106725474</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1097828799962857</v>
+        <v>0.1108068817001179</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1590591694012257</v>
+        <v>0.160188173168069</v>
       </c>
     </row>
     <row r="13">
@@ -4225,19 +4225,19 @@
         <v>160581</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>143743</v>
+        <v>143424</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>178776</v>
+        <v>176410</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5081801451034615</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4548928253001061</v>
+        <v>0.4538848682822823</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5657582887326784</v>
+        <v>0.5582717965738455</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>255</v>
@@ -4246,19 +4246,19 @@
         <v>174660</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>159233</v>
+        <v>159378</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>190622</v>
+        <v>190776</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.490094539556491</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4468063676454466</v>
+        <v>0.4472115717658328</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5348827216546358</v>
+        <v>0.5353133530883666</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>437</v>
@@ -4267,19 +4267,19 @@
         <v>335242</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>311483</v>
+        <v>310083</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>357967</v>
+        <v>357733</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.498594163229651</v>
+        <v>0.4985941632296509</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4632574240112363</v>
+        <v>0.4611749500077264</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5323915285878822</v>
+        <v>0.5320444934293344</v>
       </c>
     </row>
     <row r="14">
@@ -4296,19 +4296,19 @@
         <v>102664</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>87645</v>
+        <v>87655</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117853</v>
+        <v>118996</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3248926555453813</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2773626984759409</v>
+        <v>0.2773944553888895</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.372961424228069</v>
+        <v>0.3765773320064644</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>232</v>
@@ -4317,19 +4317,19 @@
         <v>145728</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>130799</v>
+        <v>130433</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>161804</v>
+        <v>161354</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4089108299009512</v>
+        <v>0.4089108299009511</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3670210250909154</v>
+        <v>0.3659938517077237</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4540189932020279</v>
+        <v>0.4527570920635604</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>353</v>
@@ -4338,19 +4338,19 @@
         <v>248392</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>225904</v>
+        <v>227734</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>272146</v>
+        <v>273306</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3694251260978018</v>
+        <v>0.3694251260978017</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3359798345121018</v>
+        <v>0.3387006073017105</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4047529041485045</v>
+        <v>0.4064782826066394</v>
       </c>
     </row>
     <row r="15">
@@ -4442,19 +4442,19 @@
         <v>98934</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78576</v>
+        <v>78480</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>122785</v>
+        <v>120675</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.265136624692136</v>
+        <v>0.2651366246921361</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2105772588866451</v>
+        <v>0.2103211244516659</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3290546379292922</v>
+        <v>0.3234010904019674</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>79</v>
@@ -4463,19 +4463,19 @@
         <v>63279</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49282</v>
+        <v>50455</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>79945</v>
+        <v>81171</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1499647717270746</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1167920981881217</v>
+        <v>0.11957282541304</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.189460302651249</v>
+        <v>0.1923668617230312</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>164</v>
@@ -4484,19 +4484,19 @@
         <v>162214</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>136319</v>
+        <v>137040</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>190201</v>
+        <v>191457</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2040151661148454</v>
+        <v>0.2040151661148453</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1714477156580666</v>
+        <v>0.17235451946254</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2392138228327911</v>
+        <v>0.240794095210695</v>
       </c>
     </row>
     <row r="17">
@@ -4513,19 +4513,19 @@
         <v>147752</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>125958</v>
+        <v>124100</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>173133</v>
+        <v>174035</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3959644940194041</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3375572687101075</v>
+        <v>0.3325789023177411</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4639830468777195</v>
+        <v>0.466399990495041</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>281</v>
@@ -4534,19 +4534,19 @@
         <v>199913</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>180074</v>
+        <v>180061</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>221300</v>
+        <v>220745</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4737719004692428</v>
+        <v>0.4737719004692429</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4267545868820021</v>
+        <v>0.4267236583211986</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5244557308590706</v>
+        <v>0.5231411060316928</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>400</v>
@@ -4555,19 +4555,19 @@
         <v>347666</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>316692</v>
+        <v>315139</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>378617</v>
+        <v>381648</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.437256719922663</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3983013091603076</v>
+        <v>0.3963473055555598</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4761842358424626</v>
+        <v>0.4799962687260024</v>
       </c>
     </row>
     <row r="18">
@@ -4584,19 +4584,19 @@
         <v>126458</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>103331</v>
+        <v>102190</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>152674</v>
+        <v>155013</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.33889888128846</v>
+        <v>0.3388988812884599</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2769195235660297</v>
+        <v>0.2738608585214349</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.409153779795112</v>
+        <v>0.41542288037134</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>239</v>
@@ -4605,19 +4605,19 @@
         <v>158768</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>139088</v>
+        <v>138112</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>176951</v>
+        <v>178749</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3762633278036825</v>
+        <v>0.3762633278036826</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3296222627763505</v>
+        <v>0.3273100348177391</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4193549559388769</v>
+        <v>0.4236148904241743</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>327</v>
@@ -4626,19 +4626,19 @@
         <v>285227</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>255338</v>
+        <v>254271</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>315604</v>
+        <v>317513</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3587281139624917</v>
+        <v>0.3587281139624915</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3211372419098203</v>
+        <v>0.3197941525934911</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3969324259762341</v>
+        <v>0.3993336749107795</v>
       </c>
     </row>
     <row r="19">
@@ -4730,19 +4730,19 @@
         <v>132637</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>120690</v>
+        <v>120757</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>143933</v>
+        <v>144265</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6449201214108295</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5868298910394379</v>
+        <v>0.5871520094306866</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6998441101168431</v>
+        <v>0.7014558554007033</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>295</v>
@@ -4751,19 +4751,19 @@
         <v>135531</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>124112</v>
+        <v>124446</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>146351</v>
+        <v>145971</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.59204955839004</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5421686278009372</v>
+        <v>0.5436253763501259</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.639315242579172</v>
+        <v>0.6376554801055991</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>471</v>
@@ -4772,19 +4772,19 @@
         <v>268168</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>251804</v>
+        <v>251719</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>284100</v>
+        <v>283493</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.61707038703967</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5794176635479352</v>
+        <v>0.5792206581852624</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6537320429431898</v>
+        <v>0.6523349004155343</v>
       </c>
     </row>
     <row r="21">
@@ -4801,19 +4801,19 @@
         <v>62577</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>51738</v>
+        <v>51355</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>73618</v>
+        <v>74518</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3042672789433115</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2515654137665887</v>
+        <v>0.2497033037056009</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3579512507025021</v>
+        <v>0.3623289360133943</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>151</v>
@@ -4822,19 +4822,19 @@
         <v>72640</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>62464</v>
+        <v>62712</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>83651</v>
+        <v>83661</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3173189709641902</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2728661247909953</v>
+        <v>0.2739511092187069</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3654173519897342</v>
+        <v>0.3654632107725431</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>237</v>
@@ -4843,19 +4843,19 @@
         <v>135217</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>119563</v>
+        <v>120083</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>151528</v>
+        <v>151184</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3111422985214599</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2751216697028449</v>
+        <v>0.2763173679414295</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3486744254581353</v>
+        <v>0.3478846299680992</v>
       </c>
     </row>
     <row r="22">
@@ -4872,19 +4872,19 @@
         <v>10450</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6469</v>
+        <v>6268</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16437</v>
+        <v>16503</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05081259964585891</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03145532695445007</v>
+        <v>0.03047664632788225</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07992054541077293</v>
+        <v>0.08024090930439484</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -4893,19 +4893,19 @@
         <v>20747</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15812</v>
+        <v>15464</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26767</v>
+        <v>27440</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0906314706457698</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06907078351337184</v>
+        <v>0.06755434798547694</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1169297789744485</v>
+        <v>0.1198693455461613</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -4914,19 +4914,19 @@
         <v>31197</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23884</v>
+        <v>23857</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40066</v>
+        <v>39754</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07178731443887015</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05495961920401447</v>
+        <v>0.05489690211665619</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09219353540434821</v>
+        <v>0.0914755087147581</v>
       </c>
     </row>
     <row r="23">
@@ -5018,19 +5018,19 @@
         <v>35849</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26086</v>
+        <v>24722</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>49895</v>
+        <v>47592</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.132428474204498</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09636368406153874</v>
+        <v>0.0913221100215815</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1843142167649677</v>
+        <v>0.1758068870157675</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -5039,19 +5039,19 @@
         <v>15280</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9656</v>
+        <v>9497</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23134</v>
+        <v>22567</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.05793405631162295</v>
+        <v>0.05793405631162291</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03660854982438044</v>
+        <v>0.03600647808362886</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0877108520725122</v>
+        <v>0.08556105446876316</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>58</v>
@@ -5060,19 +5060,19 @@
         <v>51129</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>38852</v>
+        <v>39026</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>64166</v>
+        <v>65182</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.09566608827668997</v>
+        <v>0.09566608827668999</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07269444105570548</v>
+        <v>0.07301960958580575</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1200585443097591</v>
+        <v>0.1219595865614916</v>
       </c>
     </row>
     <row r="25">
@@ -5089,19 +5089,19 @@
         <v>109553</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>94652</v>
+        <v>95636</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>124087</v>
+        <v>124783</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4046931068145865</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3496471749099462</v>
+        <v>0.3532838028734252</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.458381763458219</v>
+        <v>0.4609527322190492</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>193</v>
@@ -5110,19 +5110,19 @@
         <v>112350</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>99570</v>
+        <v>99473</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>124840</v>
+        <v>124212</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4259726230581362</v>
+        <v>0.425972623058136</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3775162398105101</v>
+        <v>0.3771490922813757</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4733261302329067</v>
+        <v>0.4709477739763978</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>355</v>
@@ -5131,19 +5131,19 @@
         <v>221904</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>203495</v>
+        <v>202735</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>243500</v>
+        <v>241214</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4151943740320494</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3807517887063612</v>
+        <v>0.3793289433337648</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4556018649730108</v>
+        <v>0.451325277295668</v>
       </c>
     </row>
     <row r="26">
@@ -5160,19 +5160,19 @@
         <v>125304</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>110006</v>
+        <v>110169</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>138706</v>
+        <v>139975</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4628784189809155</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4063662946180084</v>
+        <v>0.4069686742185236</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5123859296705378</v>
+        <v>0.5170724999437077</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>246</v>
@@ -5181,19 +5181,19 @@
         <v>136120</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>124199</v>
+        <v>123307</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>148698</v>
+        <v>150379</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.516093320630241</v>
+        <v>0.5160933206302408</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4708955357413846</v>
+        <v>0.4675148045589383</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5637836083293777</v>
+        <v>0.5701563710487312</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>418</v>
@@ -5202,19 +5202,19 @@
         <v>261424</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>240657</v>
+        <v>242207</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>282270</v>
+        <v>281784</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4891395376912606</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.450283360498806</v>
+        <v>0.4531840413336431</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5281433489008691</v>
+        <v>0.5272344841276035</v>
       </c>
     </row>
     <row r="27">
@@ -5306,19 +5306,19 @@
         <v>254563</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>225421</v>
+        <v>224425</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>286974</v>
+        <v>287455</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3537130021618073</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3132208616033288</v>
+        <v>0.311837445480659</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.39874839000034</v>
+        <v>0.3994168540098325</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>210</v>
@@ -5327,19 +5327,19 @@
         <v>175610</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>153994</v>
+        <v>152078</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>199824</v>
+        <v>198867</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2274568207609655</v>
+        <v>0.2274568207609656</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1994599022882059</v>
+        <v>0.1969774587873825</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2588200513852436</v>
+        <v>0.2575806758695916</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>408</v>
@@ -5348,19 +5348,19 @@
         <v>430172</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>389666</v>
+        <v>396797</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>471528</v>
+        <v>472320</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.2883687127703477</v>
+        <v>0.2883687127703478</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2612148949118407</v>
+        <v>0.2659956750806818</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3160920991408459</v>
+        <v>0.3166228895959321</v>
       </c>
     </row>
     <row r="29">
@@ -5377,19 +5377,19 @@
         <v>311768</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>281664</v>
+        <v>283642</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>340443</v>
+        <v>342387</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4331996295262168</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3913697676897004</v>
+        <v>0.3941183212603971</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.473042923899126</v>
+        <v>0.4757436322010024</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>437</v>
@@ -5398,19 +5398,19 @@
         <v>347531</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>321929</v>
+        <v>323266</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>375510</v>
+        <v>373524</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4501360095532201</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.416976245304928</v>
+        <v>0.4187079257293942</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4863755226145035</v>
+        <v>0.4838037473609374</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>700</v>
@@ -5419,19 +5419,19 @@
         <v>659299</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>617606</v>
+        <v>616770</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>701929</v>
+        <v>698888</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4419651070295691</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4140162640321977</v>
+        <v>0.4134558765611718</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4705428182910461</v>
+        <v>0.4685041221091501</v>
       </c>
     </row>
     <row r="30">
@@ -5448,19 +5448,19 @@
         <v>153356</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>131477</v>
+        <v>131362</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>180733</v>
+        <v>176180</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2130873683119759</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1826864126596081</v>
+        <v>0.1825261508167682</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2511268963426452</v>
+        <v>0.2448010832613894</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>313</v>
@@ -5469,19 +5469,19 @@
         <v>248917</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>224648</v>
+        <v>224983</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>274180</v>
+        <v>274940</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3224071696858142</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2909728915075716</v>
+        <v>0.2914066174046113</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3551295925985171</v>
+        <v>0.3561141115469042</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>451</v>
@@ -5490,19 +5490,19 @@
         <v>402273</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>369632</v>
+        <v>367258</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>441564</v>
+        <v>436727</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2696661802000832</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.247785195623199</v>
+        <v>0.2461934943037921</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2960049374196768</v>
+        <v>0.2927624544078842</v>
       </c>
     </row>
     <row r="31">
@@ -5594,19 +5594,19 @@
         <v>157805</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>132699</v>
+        <v>133030</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>185328</v>
+        <v>184726</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1977332664452931</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1662742915868667</v>
+        <v>0.166689102788271</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2322198710626549</v>
+        <v>0.23146487466774</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>55</v>
@@ -5615,19 +5615,19 @@
         <v>47289</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>36112</v>
+        <v>36046</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62040</v>
+        <v>61919</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05688296272597253</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04343822133104711</v>
+        <v>0.04335922948070626</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07462723043155686</v>
+        <v>0.07448223939561643</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>180</v>
@@ -5636,19 +5636,19 @@
         <v>205094</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>179243</v>
+        <v>178222</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>238548</v>
+        <v>237013</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.125870588931697</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1100053480788824</v>
+        <v>0.1093789560139441</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1464023535672975</v>
+        <v>0.1454597229480878</v>
       </c>
     </row>
     <row r="33">
@@ -5665,19 +5665,19 @@
         <v>434919</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>406564</v>
+        <v>404684</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>462740</v>
+        <v>462319</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5449615670748862</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.509432656758812</v>
+        <v>0.507076465816432</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5798219974893046</v>
+        <v>0.5792942785977875</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>606</v>
@@ -5686,19 +5686,19 @@
         <v>487745</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>462999</v>
+        <v>460419</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>514143</v>
+        <v>512431</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.5867041186172061</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5569373994599598</v>
+        <v>0.5538340063442584</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.618457510828491</v>
+        <v>0.6163982752030899</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1025</v>
@@ -5707,19 +5707,19 @@
         <v>922664</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>882374</v>
+        <v>883493</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>963605</v>
+        <v>960234</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.566258869536215</v>
+        <v>0.5662588695362151</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5415319800860104</v>
+        <v>0.5422188538328313</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.5913851834533856</v>
+        <v>0.5893161949448626</v>
       </c>
     </row>
     <row r="34">
@@ -5736,19 +5736,19 @@
         <v>205348</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>182332</v>
+        <v>181413</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>232176</v>
+        <v>232497</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2573051664798208</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2284656216747932</v>
+        <v>0.2273137995241203</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2909215887197213</v>
+        <v>0.2913235165068038</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>401</v>
@@ -5757,19 +5757,19 @@
         <v>296297</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>270723</v>
+        <v>272745</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>319831</v>
+        <v>322087</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3564129186568214</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3256504784603168</v>
+        <v>0.3280817333542972</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3847216626963237</v>
+        <v>0.3874356046104264</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>619</v>
@@ -5778,19 +5778,19 @@
         <v>501645</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>465772</v>
+        <v>465133</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>538085</v>
+        <v>534476</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.307870541532088</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2858545401741915</v>
+        <v>0.2854621213196049</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3302342788336846</v>
+        <v>0.3280198168185168</v>
       </c>
     </row>
     <row r="35">
@@ -5882,19 +5882,19 @@
         <v>956209</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>893638</v>
+        <v>896300</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1011882</v>
+        <v>1012211</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.2706690059288557</v>
+        <v>0.2706690059288558</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2529573915460782</v>
+        <v>0.2537109369915268</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2864280216038383</v>
+        <v>0.2865210698757321</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>965</v>
@@ -5903,19 +5903,19 @@
         <v>656809</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>620830</v>
+        <v>612203</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>702598</v>
+        <v>697856</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.1757604800294488</v>
+        <v>0.1757604800294487</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1661325182115049</v>
+        <v>0.1638240118585944</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1880135284967336</v>
+        <v>0.1867445756792352</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1818</v>
@@ -5924,19 +5924,19 @@
         <v>1613018</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1548330</v>
+        <v>1543421</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1698733</v>
+        <v>1681346</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2218818445557238</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2129835114569181</v>
+        <v>0.2123082676928461</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.23367255932033</v>
+        <v>0.2312808462134314</v>
       </c>
     </row>
     <row r="37">
@@ -5953,19 +5953,19 @@
         <v>1604671</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1544835</v>
+        <v>1541776</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1672610</v>
+        <v>1669849</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4542256211340536</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4372882075336981</v>
+        <v>0.4364223384957678</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4734566789301582</v>
+        <v>0.4726751720812961</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2430</v>
@@ -5974,19 +5974,19 @@
         <v>1728581</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1673328</v>
+        <v>1677356</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1783791</v>
+        <v>1782806</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.4625642804885985</v>
+        <v>0.4625642804885984</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4477787018246895</v>
+        <v>0.4488564214518185</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4773382943880471</v>
+        <v>0.4770745486781964</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3990</v>
@@ -5995,19 +5995,19 @@
         <v>3333252</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3240619</v>
+        <v>3256386</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3412147</v>
+        <v>3419001</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.4585120592144105</v>
+        <v>0.4585120592144104</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4457697213797981</v>
+        <v>0.4479384803622805</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4693646119639468</v>
+        <v>0.4703073294610052</v>
       </c>
     </row>
     <row r="38">
@@ -6024,19 +6024,19 @@
         <v>971882</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>912047</v>
+        <v>915293</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1029443</v>
+        <v>1030102</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2751053729370907</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2581683647741629</v>
+        <v>0.259087078475064</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2913989066863691</v>
+        <v>0.2915854168537201</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1972</v>
@@ -6045,19 +6045,19 @@
         <v>1351564</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1295853</v>
+        <v>1300482</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1402069</v>
+        <v>1406232</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.3616752394819528</v>
+        <v>0.3616752394819527</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3467670915793669</v>
+        <v>0.3480058426338427</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3751902828424733</v>
+        <v>0.3763044023353341</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2935</v>
@@ -6066,19 +6066,19 @@
         <v>2323446</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2249025</v>
+        <v>2244691</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2412084</v>
+        <v>2404844</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3196060962298656</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3093690547115311</v>
+        <v>0.308772793250934</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3317989235361497</v>
+        <v>0.3308029780284532</v>
       </c>
     </row>
     <row r="39">
